--- a/data-raw/sayer.sugarcane.uniformity.xlsx
+++ b/data-raw/sayer.sugarcane.uniformity.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE63D5D-20A3-45DB-B505-45E5B37475B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="11688" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1933" sheetId="1" r:id="rId1"/>
-    <sheet name="1934" sheetId="4" r:id="rId2"/>
+    <sheet name="1932" sheetId="5" r:id="rId1"/>
+    <sheet name="1933" sheetId="1" r:id="rId2"/>
+    <sheet name="1934" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -50,12 +61,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -91,6 +114,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,19 +430,2978 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B372CCBA-7A79-409F-88CF-247297F6D02F}">
+  <dimension ref="A1:T48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="8">
+        <v>105</v>
+      </c>
+      <c r="B1" s="8">
+        <v>101</v>
+      </c>
+      <c r="C1" s="8">
+        <v>136</v>
+      </c>
+      <c r="D1" s="8">
+        <v>107</v>
+      </c>
+      <c r="E1" s="8">
+        <v>137.5</v>
+      </c>
+      <c r="F1" s="8">
+        <v>133.5</v>
+      </c>
+      <c r="G1" s="8">
+        <v>123</v>
+      </c>
+      <c r="H1" s="10">
+        <v>164</v>
+      </c>
+      <c r="I1" s="8">
+        <v>119</v>
+      </c>
+      <c r="J1" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="K1" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="L1" s="10">
+        <v>76</v>
+      </c>
+      <c r="M1" s="8">
+        <v>70</v>
+      </c>
+      <c r="N1" s="8">
+        <v>127</v>
+      </c>
+      <c r="O1" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="P1" s="8">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>77</v>
+      </c>
+      <c r="R1" s="8">
+        <v>81</v>
+      </c>
+      <c r="S1" s="8">
+        <v>119</v>
+      </c>
+      <c r="T1" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>118</v>
+      </c>
+      <c r="B2" s="8">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9">
+        <v>91</v>
+      </c>
+      <c r="D2" s="8">
+        <v>125</v>
+      </c>
+      <c r="E2" s="8">
+        <v>111</v>
+      </c>
+      <c r="F2" s="8">
+        <v>143.5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>149</v>
+      </c>
+      <c r="H2" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>143.5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>157</v>
+      </c>
+      <c r="K2" s="8">
+        <v>171</v>
+      </c>
+      <c r="L2" s="8">
+        <v>164</v>
+      </c>
+      <c r="M2" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="N2" s="8">
+        <v>75</v>
+      </c>
+      <c r="O2" s="8">
+        <v>109</v>
+      </c>
+      <c r="P2" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>117</v>
+      </c>
+      <c r="R2" s="8">
+        <v>89</v>
+      </c>
+      <c r="S2" s="8">
+        <v>114</v>
+      </c>
+      <c r="T2" s="8">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8">
+        <v>115.5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>113.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>84</v>
+      </c>
+      <c r="F3" s="8">
+        <v>117</v>
+      </c>
+      <c r="G3" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>132.5</v>
+      </c>
+      <c r="I3" s="8">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8">
+        <v>29.5</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45</v>
+      </c>
+      <c r="L3" s="8">
+        <v>76</v>
+      </c>
+      <c r="M3" s="8">
+        <v>72</v>
+      </c>
+      <c r="N3" s="8">
+        <v>98.5</v>
+      </c>
+      <c r="O3" s="8">
+        <v>78</v>
+      </c>
+      <c r="P3" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>37</v>
+      </c>
+      <c r="R3" s="8">
+        <v>74</v>
+      </c>
+      <c r="S3" s="8">
+        <v>127</v>
+      </c>
+      <c r="T3" s="8">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>106</v>
+      </c>
+      <c r="B4" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>101</v>
+      </c>
+      <c r="D4" s="8">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>60.5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8">
+        <v>89</v>
+      </c>
+      <c r="J4" s="8">
+        <v>120</v>
+      </c>
+      <c r="K4" s="8">
+        <v>115</v>
+      </c>
+      <c r="L4" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>65.5</v>
+      </c>
+      <c r="O4" s="8">
+        <v>122</v>
+      </c>
+      <c r="P4" s="8">
+        <v>93.5</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>116</v>
+      </c>
+      <c r="R4" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="S4" s="8">
+        <v>119</v>
+      </c>
+      <c r="T4" s="8">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8">
+        <v>149</v>
+      </c>
+      <c r="C5" s="8">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>133.5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>116</v>
+      </c>
+      <c r="G5" s="8">
+        <v>117</v>
+      </c>
+      <c r="H5" s="8">
+        <v>165</v>
+      </c>
+      <c r="I5" s="8">
+        <v>112</v>
+      </c>
+      <c r="J5" s="8">
+        <v>85</v>
+      </c>
+      <c r="K5" s="8">
+        <v>145.5</v>
+      </c>
+      <c r="L5" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="M5" s="8">
+        <v>82</v>
+      </c>
+      <c r="N5" s="8">
+        <v>148</v>
+      </c>
+      <c r="O5" s="8">
+        <v>164</v>
+      </c>
+      <c r="P5" s="8">
+        <v>145.5</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>146.5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="S5" s="8">
+        <v>130</v>
+      </c>
+      <c r="T5" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>134</v>
+      </c>
+      <c r="E6" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>126</v>
+      </c>
+      <c r="H6" s="8">
+        <v>145.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>130</v>
+      </c>
+      <c r="J6" s="8">
+        <v>137.5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>117</v>
+      </c>
+      <c r="L6" s="8">
+        <v>120</v>
+      </c>
+      <c r="M6" s="8">
+        <v>125</v>
+      </c>
+      <c r="N6" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>114</v>
+      </c>
+      <c r="P6" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>84</v>
+      </c>
+      <c r="S6" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="T6" s="8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>130</v>
+      </c>
+      <c r="B7" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>155</v>
+      </c>
+      <c r="D7" s="8">
+        <v>102</v>
+      </c>
+      <c r="E7" s="8">
+        <v>98.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>129</v>
+      </c>
+      <c r="G7" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>125</v>
+      </c>
+      <c r="I7" s="8">
+        <v>89</v>
+      </c>
+      <c r="J7" s="8">
+        <v>121</v>
+      </c>
+      <c r="K7" s="8">
+        <v>46</v>
+      </c>
+      <c r="L7" s="8">
+        <v>76</v>
+      </c>
+      <c r="M7" s="8">
+        <v>90</v>
+      </c>
+      <c r="N7" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>88</v>
+      </c>
+      <c r="P7" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="R7" s="8">
+        <v>116</v>
+      </c>
+      <c r="S7" s="8">
+        <v>121</v>
+      </c>
+      <c r="T7" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>123.5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>107.5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
+        <v>111</v>
+      </c>
+      <c r="E8" s="8">
+        <v>109</v>
+      </c>
+      <c r="F8" s="8">
+        <v>127</v>
+      </c>
+      <c r="G8" s="8">
+        <v>115</v>
+      </c>
+      <c r="H8" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>116</v>
+      </c>
+      <c r="J8" s="8">
+        <v>113</v>
+      </c>
+      <c r="K8" s="8">
+        <v>114</v>
+      </c>
+      <c r="L8" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>127</v>
+      </c>
+      <c r="N8" s="8">
+        <v>100.5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>109</v>
+      </c>
+      <c r="P8" s="8">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>126</v>
+      </c>
+      <c r="R8" s="8">
+        <v>87</v>
+      </c>
+      <c r="S8" s="8">
+        <v>144.5</v>
+      </c>
+      <c r="T8" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>117</v>
+      </c>
+      <c r="B9" s="8">
+        <v>118</v>
+      </c>
+      <c r="C9" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>82</v>
+      </c>
+      <c r="E9" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>131</v>
+      </c>
+      <c r="G9" s="8">
+        <v>108</v>
+      </c>
+      <c r="H9" s="8">
+        <v>147</v>
+      </c>
+      <c r="I9" s="8">
+        <v>150</v>
+      </c>
+      <c r="J9" s="8">
+        <v>98</v>
+      </c>
+      <c r="K9" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>109</v>
+      </c>
+      <c r="M9" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>154</v>
+      </c>
+      <c r="O9" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="P9" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>124</v>
+      </c>
+      <c r="R9" s="8">
+        <v>100.5</v>
+      </c>
+      <c r="S9" s="8">
+        <v>118</v>
+      </c>
+      <c r="T9" s="8">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8">
+        <v>132</v>
+      </c>
+      <c r="C10" s="8">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8">
+        <v>87</v>
+      </c>
+      <c r="E10" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>104.5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>135.5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>125</v>
+      </c>
+      <c r="J10" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>82</v>
+      </c>
+      <c r="L10" s="8">
+        <v>101.5</v>
+      </c>
+      <c r="M10" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>60.5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="S10" s="8">
+        <v>144.5</v>
+      </c>
+      <c r="T10" s="8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>96</v>
+      </c>
+      <c r="B11" s="8">
+        <v>88</v>
+      </c>
+      <c r="C11" s="8">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>87</v>
+      </c>
+      <c r="H11" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>58.5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>123</v>
+      </c>
+      <c r="K11" s="8">
+        <v>119</v>
+      </c>
+      <c r="L11" s="8">
+        <v>61.5</v>
+      </c>
+      <c r="M11" s="8">
+        <v>50</v>
+      </c>
+      <c r="N11" s="8">
+        <v>110</v>
+      </c>
+      <c r="O11" s="8">
+        <v>58.5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="R11" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="S11" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="T11" s="8">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>91</v>
+      </c>
+      <c r="B12" s="8">
+        <v>85.5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8">
+        <v>81</v>
+      </c>
+      <c r="G12" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>79</v>
+      </c>
+      <c r="I12" s="8">
+        <v>105</v>
+      </c>
+      <c r="J12" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="K12" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>150</v>
+      </c>
+      <c r="N12" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="O12" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>113.5</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>95</v>
+      </c>
+      <c r="R12" s="8">
+        <v>110</v>
+      </c>
+      <c r="S12" s="8">
+        <v>124</v>
+      </c>
+      <c r="T12" s="8">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>79</v>
+      </c>
+      <c r="C13" s="8">
+        <v>88</v>
+      </c>
+      <c r="D13" s="8">
+        <v>67</v>
+      </c>
+      <c r="E13" s="8">
+        <v>59.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>89</v>
+      </c>
+      <c r="G13" s="8">
+        <v>102</v>
+      </c>
+      <c r="H13" s="8">
+        <v>94</v>
+      </c>
+      <c r="I13" s="8">
+        <v>59</v>
+      </c>
+      <c r="J13" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>66</v>
+      </c>
+      <c r="M13" s="8">
+        <v>41.5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="O13" s="8">
+        <v>101.5</v>
+      </c>
+      <c r="P13" s="8">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="R13" s="8">
+        <v>96</v>
+      </c>
+      <c r="S13" s="8">
+        <v>116</v>
+      </c>
+      <c r="T13" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8">
+        <v>112</v>
+      </c>
+      <c r="E14" s="8">
+        <v>80.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>122.5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>108.5</v>
+      </c>
+      <c r="H14" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>135</v>
+      </c>
+      <c r="J14" s="8">
+        <v>72</v>
+      </c>
+      <c r="K14" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>116.5</v>
+      </c>
+      <c r="M14" s="8">
+        <v>65.5</v>
+      </c>
+      <c r="N14" s="8">
+        <v>100</v>
+      </c>
+      <c r="O14" s="8">
+        <v>57</v>
+      </c>
+      <c r="P14" s="8">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>90.5</v>
+      </c>
+      <c r="R14" s="8">
+        <v>71</v>
+      </c>
+      <c r="S14" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="T14" s="8">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8">
+        <v>107</v>
+      </c>
+      <c r="D15" s="8">
+        <v>89</v>
+      </c>
+      <c r="E15" s="8">
+        <v>98.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>82</v>
+      </c>
+      <c r="G15" s="8">
+        <v>115</v>
+      </c>
+      <c r="H15" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="J15" s="8">
+        <v>152</v>
+      </c>
+      <c r="K15" s="8">
+        <v>89</v>
+      </c>
+      <c r="L15" s="8">
+        <v>131</v>
+      </c>
+      <c r="M15" s="8">
+        <v>108</v>
+      </c>
+      <c r="N15" s="8">
+        <v>111</v>
+      </c>
+      <c r="O15" s="8">
+        <v>86</v>
+      </c>
+      <c r="P15" s="8">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>106</v>
+      </c>
+      <c r="R15" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="S15" s="8">
+        <v>87</v>
+      </c>
+      <c r="T15" s="8">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>98</v>
+      </c>
+      <c r="B16" s="8">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>83</v>
+      </c>
+      <c r="E16" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>95</v>
+      </c>
+      <c r="G16" s="8">
+        <v>91.5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="I16" s="8">
+        <v>52</v>
+      </c>
+      <c r="J16" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="K16" s="8">
+        <v>101</v>
+      </c>
+      <c r="L16" s="8">
+        <v>109</v>
+      </c>
+      <c r="M16" s="8">
+        <v>114</v>
+      </c>
+      <c r="N16" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="O16" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="P16" s="8">
+        <v>92.5</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="R16" s="8">
+        <v>108.5</v>
+      </c>
+      <c r="S16" s="8">
+        <v>92</v>
+      </c>
+      <c r="T16" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>41.5</v>
+      </c>
+      <c r="B17" s="8">
+        <v>73</v>
+      </c>
+      <c r="C17" s="8">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8">
+        <v>71</v>
+      </c>
+      <c r="E17" s="8">
+        <v>79</v>
+      </c>
+      <c r="F17" s="8">
+        <v>114</v>
+      </c>
+      <c r="G17" s="8">
+        <v>123</v>
+      </c>
+      <c r="H17" s="8">
+        <v>122.5</v>
+      </c>
+      <c r="I17" s="8">
+        <v>138</v>
+      </c>
+      <c r="J17" s="8">
+        <v>85.5</v>
+      </c>
+      <c r="K17" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>124</v>
+      </c>
+      <c r="M17" s="8">
+        <v>75</v>
+      </c>
+      <c r="N17" s="8">
+        <v>72</v>
+      </c>
+      <c r="O17" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="P17" s="8">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>116</v>
+      </c>
+      <c r="R17" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="S17" s="8">
+        <v>62</v>
+      </c>
+      <c r="T17" s="8">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>115</v>
+      </c>
+      <c r="B18" s="8">
+        <v>79</v>
+      </c>
+      <c r="C18" s="8">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8">
+        <v>104.5</v>
+      </c>
+      <c r="E18" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>68.5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>80</v>
+      </c>
+      <c r="H18" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="J18" s="8">
+        <v>111</v>
+      </c>
+      <c r="K18" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="M18" s="8">
+        <v>119</v>
+      </c>
+      <c r="N18" s="8">
+        <v>129.5</v>
+      </c>
+      <c r="O18" s="8">
+        <v>112</v>
+      </c>
+      <c r="P18" s="8">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>105</v>
+      </c>
+      <c r="R18" s="8">
+        <v>113.5</v>
+      </c>
+      <c r="S18" s="8">
+        <v>102</v>
+      </c>
+      <c r="T18" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>82</v>
+      </c>
+      <c r="B19" s="8">
+        <v>79</v>
+      </c>
+      <c r="C19" s="8">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8">
+        <v>98</v>
+      </c>
+      <c r="E19" s="8">
+        <v>113</v>
+      </c>
+      <c r="F19" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>108</v>
+      </c>
+      <c r="H19" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>120</v>
+      </c>
+      <c r="J19" s="8">
+        <v>131.5</v>
+      </c>
+      <c r="K19" s="8">
+        <v>90.5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>116.5</v>
+      </c>
+      <c r="M19" s="8">
+        <v>110</v>
+      </c>
+      <c r="N19" s="8">
+        <v>102</v>
+      </c>
+      <c r="O19" s="8">
+        <v>107</v>
+      </c>
+      <c r="P19" s="8">
+        <v>125.5</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>106</v>
+      </c>
+      <c r="R19" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="S19" s="8">
+        <v>121.5</v>
+      </c>
+      <c r="T19" s="8">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>74</v>
+      </c>
+      <c r="B20" s="8">
+        <v>97</v>
+      </c>
+      <c r="C20" s="8">
+        <v>76</v>
+      </c>
+      <c r="D20" s="8">
+        <v>85</v>
+      </c>
+      <c r="E20" s="8">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>69.5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>60</v>
+      </c>
+      <c r="I20" s="8">
+        <v>109.5</v>
+      </c>
+      <c r="J20" s="8">
+        <v>105</v>
+      </c>
+      <c r="K20" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>111</v>
+      </c>
+      <c r="M20" s="8">
+        <v>106</v>
+      </c>
+      <c r="N20" s="8">
+        <v>131.5</v>
+      </c>
+      <c r="O20" s="8">
+        <v>126</v>
+      </c>
+      <c r="P20" s="8">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>104</v>
+      </c>
+      <c r="R20" s="8">
+        <v>138</v>
+      </c>
+      <c r="S20" s="8">
+        <v>123.5</v>
+      </c>
+      <c r="T20" s="8">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>98.5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8">
+        <v>87</v>
+      </c>
+      <c r="E21" s="8">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8">
+        <v>84</v>
+      </c>
+      <c r="G21" s="8">
+        <v>105</v>
+      </c>
+      <c r="H21" s="8">
+        <v>122</v>
+      </c>
+      <c r="I21" s="8">
+        <v>97</v>
+      </c>
+      <c r="J21" s="8">
+        <v>76</v>
+      </c>
+      <c r="K21" s="8">
+        <v>69</v>
+      </c>
+      <c r="L21" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="M21" s="8">
+        <v>89</v>
+      </c>
+      <c r="N21" s="8">
+        <v>116</v>
+      </c>
+      <c r="O21" s="8">
+        <v>71</v>
+      </c>
+      <c r="P21" s="8">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>59</v>
+      </c>
+      <c r="R21" s="8">
+        <v>98</v>
+      </c>
+      <c r="S21" s="8">
+        <v>120</v>
+      </c>
+      <c r="T21" s="8">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>100.5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>107.5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>56</v>
+      </c>
+      <c r="D22" s="8">
+        <v>92</v>
+      </c>
+      <c r="E22" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>91.5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>112</v>
+      </c>
+      <c r="H22" s="8">
+        <v>134</v>
+      </c>
+      <c r="I22" s="8">
+        <v>123.5</v>
+      </c>
+      <c r="J22" s="8">
+        <v>95</v>
+      </c>
+      <c r="K22" s="8">
+        <v>154</v>
+      </c>
+      <c r="L22" s="8">
+        <v>85.5</v>
+      </c>
+      <c r="M22" s="8">
+        <v>56</v>
+      </c>
+      <c r="N22" s="8">
+        <v>115</v>
+      </c>
+      <c r="O22" s="8">
+        <v>121</v>
+      </c>
+      <c r="P22" s="8">
+        <v>92</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>117</v>
+      </c>
+      <c r="R22" s="8">
+        <v>127</v>
+      </c>
+      <c r="S22" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="T22" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>110.5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>99</v>
+      </c>
+      <c r="C23" s="8">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8">
+        <v>54</v>
+      </c>
+      <c r="E23" s="8">
+        <v>75</v>
+      </c>
+      <c r="F23" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="H23" s="8">
+        <v>53</v>
+      </c>
+      <c r="I23" s="8">
+        <v>42</v>
+      </c>
+      <c r="J23" s="8">
+        <v>57</v>
+      </c>
+      <c r="K23" s="8">
+        <v>115.5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="M23" s="8">
+        <v>88.5</v>
+      </c>
+      <c r="N23" s="8">
+        <v>134.5</v>
+      </c>
+      <c r="O23" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="P23" s="8">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>111.5</v>
+      </c>
+      <c r="R23" s="8">
+        <v>71</v>
+      </c>
+      <c r="S23" s="8">
+        <v>103</v>
+      </c>
+      <c r="T23" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>108</v>
+      </c>
+      <c r="B24" s="8">
+        <v>46</v>
+      </c>
+      <c r="C24" s="8">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="E24" s="8">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8">
+        <v>39</v>
+      </c>
+      <c r="G24" s="8">
+        <v>89.5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>105</v>
+      </c>
+      <c r="I24" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="J24" s="8">
+        <v>90</v>
+      </c>
+      <c r="K24" s="8">
+        <v>59</v>
+      </c>
+      <c r="L24" s="8">
+        <v>79</v>
+      </c>
+      <c r="M24" s="8">
+        <v>93</v>
+      </c>
+      <c r="N24" s="8">
+        <v>120</v>
+      </c>
+      <c r="O24" s="8">
+        <v>121</v>
+      </c>
+      <c r="P24" s="8">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>88</v>
+      </c>
+      <c r="R24" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="S24" s="8">
+        <v>80</v>
+      </c>
+      <c r="T24" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>68</v>
+      </c>
+      <c r="B25" s="8">
+        <v>74</v>
+      </c>
+      <c r="C25" s="8">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8">
+        <v>58</v>
+      </c>
+      <c r="E25" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="F25" s="8">
+        <v>71</v>
+      </c>
+      <c r="G25" s="8">
+        <v>100</v>
+      </c>
+      <c r="H25" s="8">
+        <v>67.5</v>
+      </c>
+      <c r="I25" s="8">
+        <v>81</v>
+      </c>
+      <c r="J25" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="K25" s="8">
+        <v>92</v>
+      </c>
+      <c r="L25" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="M25" s="8">
+        <v>97</v>
+      </c>
+      <c r="N25" s="8">
+        <v>101</v>
+      </c>
+      <c r="O25" s="8">
+        <v>107</v>
+      </c>
+      <c r="P25" s="8">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>85.5</v>
+      </c>
+      <c r="R25" s="8">
+        <v>102</v>
+      </c>
+      <c r="S25" s="8">
+        <v>116</v>
+      </c>
+      <c r="T25" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>123.5</v>
+      </c>
+      <c r="B26" s="8">
+        <v>117</v>
+      </c>
+      <c r="C26" s="8">
+        <v>99</v>
+      </c>
+      <c r="D26" s="8">
+        <v>61.5</v>
+      </c>
+      <c r="E26" s="8">
+        <v>82</v>
+      </c>
+      <c r="F26" s="8">
+        <v>121.5</v>
+      </c>
+      <c r="G26" s="8">
+        <v>75</v>
+      </c>
+      <c r="H26" s="8">
+        <v>98</v>
+      </c>
+      <c r="I26" s="8">
+        <v>136</v>
+      </c>
+      <c r="J26" s="8">
+        <v>103</v>
+      </c>
+      <c r="K26" s="8">
+        <v>90</v>
+      </c>
+      <c r="L26" s="8">
+        <v>88</v>
+      </c>
+      <c r="M26" s="8">
+        <v>118.5</v>
+      </c>
+      <c r="N26" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="O26" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="P26" s="8">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>126</v>
+      </c>
+      <c r="R26" s="8">
+        <v>127</v>
+      </c>
+      <c r="S26" s="8">
+        <v>85</v>
+      </c>
+      <c r="T26" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>106</v>
+      </c>
+      <c r="B27" s="8">
+        <v>85</v>
+      </c>
+      <c r="C27" s="8">
+        <v>65</v>
+      </c>
+      <c r="D27" s="8">
+        <v>63.5</v>
+      </c>
+      <c r="E27" s="8">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8">
+        <v>49</v>
+      </c>
+      <c r="G27" s="8">
+        <v>103</v>
+      </c>
+      <c r="H27" s="8">
+        <v>102</v>
+      </c>
+      <c r="I27" s="8">
+        <v>88</v>
+      </c>
+      <c r="J27" s="8">
+        <v>153</v>
+      </c>
+      <c r="K27" s="8">
+        <v>82</v>
+      </c>
+      <c r="L27" s="8">
+        <v>88.5</v>
+      </c>
+      <c r="M27" s="8">
+        <v>101</v>
+      </c>
+      <c r="N27" s="8">
+        <v>118</v>
+      </c>
+      <c r="O27" s="8">
+        <v>110.5</v>
+      </c>
+      <c r="P27" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>113</v>
+      </c>
+      <c r="R27" s="8">
+        <v>131</v>
+      </c>
+      <c r="S27" s="8">
+        <v>112</v>
+      </c>
+      <c r="T27" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>104</v>
+      </c>
+      <c r="B28" s="8">
+        <v>128</v>
+      </c>
+      <c r="C28" s="8">
+        <v>43</v>
+      </c>
+      <c r="D28" s="8">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8">
+        <v>59</v>
+      </c>
+      <c r="F28" s="8">
+        <v>42</v>
+      </c>
+      <c r="G28" s="8">
+        <v>43</v>
+      </c>
+      <c r="H28" s="8">
+        <v>84</v>
+      </c>
+      <c r="I28" s="8">
+        <v>84</v>
+      </c>
+      <c r="J28" s="8">
+        <v>76</v>
+      </c>
+      <c r="K28" s="8">
+        <v>131.5</v>
+      </c>
+      <c r="L28" s="8">
+        <v>90.5</v>
+      </c>
+      <c r="M28" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="N28" s="8">
+        <v>93.5</v>
+      </c>
+      <c r="O28" s="8">
+        <v>83</v>
+      </c>
+      <c r="P28" s="8">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="R28" s="8">
+        <v>109</v>
+      </c>
+      <c r="S28" s="8">
+        <v>138</v>
+      </c>
+      <c r="T28" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>108</v>
+      </c>
+      <c r="B29" s="8">
+        <v>131</v>
+      </c>
+      <c r="C29" s="8">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8">
+        <v>53</v>
+      </c>
+      <c r="F29" s="8">
+        <v>67</v>
+      </c>
+      <c r="G29" s="8">
+        <v>53</v>
+      </c>
+      <c r="H29" s="8">
+        <v>60</v>
+      </c>
+      <c r="I29" s="8">
+        <v>75</v>
+      </c>
+      <c r="J29" s="8">
+        <v>85.5</v>
+      </c>
+      <c r="K29" s="8">
+        <v>84</v>
+      </c>
+      <c r="L29" s="8">
+        <v>78</v>
+      </c>
+      <c r="M29" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="N29" s="8">
+        <v>134</v>
+      </c>
+      <c r="O29" s="8">
+        <v>137</v>
+      </c>
+      <c r="P29" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>91</v>
+      </c>
+      <c r="R29" s="8">
+        <v>88</v>
+      </c>
+      <c r="S29" s="8">
+        <v>81.5</v>
+      </c>
+      <c r="T29" s="8">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>95</v>
+      </c>
+      <c r="B30" s="8">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8">
+        <v>144</v>
+      </c>
+      <c r="D30" s="8">
+        <v>119.5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>66</v>
+      </c>
+      <c r="F30" s="8">
+        <v>51</v>
+      </c>
+      <c r="G30" s="8">
+        <v>78</v>
+      </c>
+      <c r="H30" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="I30" s="8">
+        <v>109</v>
+      </c>
+      <c r="J30" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="K30" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="L30" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="M30" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="N30" s="8">
+        <v>68</v>
+      </c>
+      <c r="O30" s="8">
+        <v>87</v>
+      </c>
+      <c r="P30" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>80</v>
+      </c>
+      <c r="R30" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="S30" s="8">
+        <v>127</v>
+      </c>
+      <c r="T30" s="8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>120</v>
+      </c>
+      <c r="B31" s="8">
+        <v>97</v>
+      </c>
+      <c r="C31" s="8">
+        <v>77</v>
+      </c>
+      <c r="D31" s="8">
+        <v>88.5</v>
+      </c>
+      <c r="E31" s="8">
+        <v>53</v>
+      </c>
+      <c r="F31" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="G31" s="8">
+        <v>45</v>
+      </c>
+      <c r="H31" s="8">
+        <v>127</v>
+      </c>
+      <c r="I31" s="8">
+        <v>120</v>
+      </c>
+      <c r="J31" s="8">
+        <v>135</v>
+      </c>
+      <c r="K31" s="8">
+        <v>120.5</v>
+      </c>
+      <c r="L31" s="8">
+        <v>116</v>
+      </c>
+      <c r="M31" s="8">
+        <v>121</v>
+      </c>
+      <c r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8">
+        <v>135</v>
+      </c>
+      <c r="P31" s="8">
+        <v>102.5</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>96</v>
+      </c>
+      <c r="R31" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="S31" s="8">
+        <v>85</v>
+      </c>
+      <c r="T31" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8">
+        <v>95</v>
+      </c>
+      <c r="C32" s="8">
+        <v>74</v>
+      </c>
+      <c r="D32" s="8">
+        <v>77</v>
+      </c>
+      <c r="E32" s="8">
+        <v>37</v>
+      </c>
+      <c r="F32" s="8">
+        <v>32</v>
+      </c>
+      <c r="G32" s="8">
+        <v>40</v>
+      </c>
+      <c r="H32" s="8">
+        <v>57</v>
+      </c>
+      <c r="I32" s="8">
+        <v>134</v>
+      </c>
+      <c r="J32" s="8">
+        <v>106</v>
+      </c>
+      <c r="K32" s="8">
+        <v>85</v>
+      </c>
+      <c r="L32" s="8">
+        <v>104.5</v>
+      </c>
+      <c r="M32" s="8">
+        <v>75</v>
+      </c>
+      <c r="N32" s="8">
+        <v>117</v>
+      </c>
+      <c r="O32" s="8">
+        <v>90</v>
+      </c>
+      <c r="P32" s="8">
+        <v>96</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>93</v>
+      </c>
+      <c r="R32" s="8">
+        <v>86.5</v>
+      </c>
+      <c r="S32" s="8">
+        <v>130</v>
+      </c>
+      <c r="T32" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
+        <v>123</v>
+      </c>
+      <c r="B33" s="8">
+        <v>69.5</v>
+      </c>
+      <c r="C33" s="8">
+        <v>56</v>
+      </c>
+      <c r="D33" s="8">
+        <v>59</v>
+      </c>
+      <c r="E33" s="8">
+        <v>26</v>
+      </c>
+      <c r="F33" s="8">
+        <v>46</v>
+      </c>
+      <c r="G33" s="8">
+        <v>60.5</v>
+      </c>
+      <c r="H33" s="8">
+        <v>52.5</v>
+      </c>
+      <c r="I33" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="J33" s="8">
+        <v>81</v>
+      </c>
+      <c r="K33" s="8">
+        <v>87</v>
+      </c>
+      <c r="L33" s="8">
+        <v>111.5</v>
+      </c>
+      <c r="M33" s="8">
+        <v>136.5</v>
+      </c>
+      <c r="N33" s="8">
+        <v>121</v>
+      </c>
+      <c r="O33" s="8">
+        <v>80.5</v>
+      </c>
+      <c r="P33" s="8">
+        <v>92</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>124</v>
+      </c>
+      <c r="R33" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="S33" s="8">
+        <v>115</v>
+      </c>
+      <c r="T33" s="8">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>100</v>
+      </c>
+      <c r="B34" s="8">
+        <v>118.5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>82</v>
+      </c>
+      <c r="D34" s="8">
+        <v>40</v>
+      </c>
+      <c r="E34" s="8">
+        <v>46</v>
+      </c>
+      <c r="F34" s="8">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="H34" s="8">
+        <v>37</v>
+      </c>
+      <c r="I34" s="8">
+        <v>89</v>
+      </c>
+      <c r="J34" s="8">
+        <v>97</v>
+      </c>
+      <c r="K34" s="8">
+        <v>68.5</v>
+      </c>
+      <c r="L34" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="M34" s="8">
+        <v>44</v>
+      </c>
+      <c r="N34" s="8">
+        <v>91.5</v>
+      </c>
+      <c r="O34" s="8">
+        <v>87</v>
+      </c>
+      <c r="P34" s="8">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>87</v>
+      </c>
+      <c r="R34" s="8">
+        <v>70</v>
+      </c>
+      <c r="S34" s="8">
+        <v>117</v>
+      </c>
+      <c r="T34" s="8">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="B35" s="8">
+        <v>67</v>
+      </c>
+      <c r="C35" s="8">
+        <v>101</v>
+      </c>
+      <c r="D35" s="8">
+        <v>44.5</v>
+      </c>
+      <c r="E35" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="F35" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="G35" s="8">
+        <v>53.5</v>
+      </c>
+      <c r="H35" s="8">
+        <v>60</v>
+      </c>
+      <c r="I35" s="8">
+        <v>52</v>
+      </c>
+      <c r="J35" s="8">
+        <v>40</v>
+      </c>
+      <c r="K35" s="8">
+        <v>85</v>
+      </c>
+      <c r="L35" s="8">
+        <v>90.5</v>
+      </c>
+      <c r="M35" s="8">
+        <v>107</v>
+      </c>
+      <c r="N35" s="8">
+        <v>80</v>
+      </c>
+      <c r="O35" s="8">
+        <v>170</v>
+      </c>
+      <c r="P35" s="8">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>84</v>
+      </c>
+      <c r="R35" s="8">
+        <v>147</v>
+      </c>
+      <c r="S35" s="8">
+        <v>86</v>
+      </c>
+      <c r="T35" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="B36" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>145.5</v>
+      </c>
+      <c r="D36" s="8">
+        <v>93</v>
+      </c>
+      <c r="E36" s="8">
+        <v>54</v>
+      </c>
+      <c r="F36" s="8">
+        <v>53</v>
+      </c>
+      <c r="G36" s="8">
+        <v>65</v>
+      </c>
+      <c r="H36" s="8">
+        <v>75</v>
+      </c>
+      <c r="I36" s="8">
+        <v>40</v>
+      </c>
+      <c r="J36" s="8">
+        <v>31</v>
+      </c>
+      <c r="K36" s="8">
+        <v>46</v>
+      </c>
+      <c r="L36" s="8">
+        <v>40</v>
+      </c>
+      <c r="M36" s="8">
+        <v>45</v>
+      </c>
+      <c r="N36" s="8">
+        <v>22</v>
+      </c>
+      <c r="O36" s="8">
+        <v>88</v>
+      </c>
+      <c r="P36" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>96</v>
+      </c>
+      <c r="R36" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="S36" s="8">
+        <v>76</v>
+      </c>
+      <c r="T36" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="B37" s="8">
+        <v>44</v>
+      </c>
+      <c r="C37" s="8">
+        <v>61.5</v>
+      </c>
+      <c r="D37" s="8">
+        <v>24</v>
+      </c>
+      <c r="E37" s="8">
+        <v>33</v>
+      </c>
+      <c r="F37" s="8">
+        <v>78</v>
+      </c>
+      <c r="G37" s="8">
+        <v>58</v>
+      </c>
+      <c r="H37" s="8">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8">
+        <v>140</v>
+      </c>
+      <c r="J37" s="8">
+        <v>7</v>
+      </c>
+      <c r="K37" s="8">
+        <v>50</v>
+      </c>
+      <c r="L37" s="8">
+        <v>93</v>
+      </c>
+      <c r="M37" s="8">
+        <v>70</v>
+      </c>
+      <c r="N37" s="8">
+        <v>31</v>
+      </c>
+      <c r="O37" s="8">
+        <v>46</v>
+      </c>
+      <c r="P37" s="8">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>5</v>
+      </c>
+      <c r="R37" s="8">
+        <v>11</v>
+      </c>
+      <c r="S37" s="8">
+        <v>85</v>
+      </c>
+      <c r="T37" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>40</v>
+      </c>
+      <c r="B38" s="8">
+        <v>85</v>
+      </c>
+      <c r="C38" s="8">
+        <v>150.5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>150</v>
+      </c>
+      <c r="E38" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="F38" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="G38" s="8">
+        <v>136</v>
+      </c>
+      <c r="H38" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="I38" s="8">
+        <v>64</v>
+      </c>
+      <c r="J38" s="8">
+        <v>76</v>
+      </c>
+      <c r="K38" s="8">
+        <v>111.5</v>
+      </c>
+      <c r="L38" s="8">
+        <v>86</v>
+      </c>
+      <c r="M38" s="8">
+        <v>112</v>
+      </c>
+      <c r="N38" s="8">
+        <v>62</v>
+      </c>
+      <c r="O38" s="8">
+        <v>93.5</v>
+      </c>
+      <c r="P38" s="8">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>28</v>
+      </c>
+      <c r="R38" s="8">
+        <v>30</v>
+      </c>
+      <c r="S38" s="8">
+        <v>88</v>
+      </c>
+      <c r="T38" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>79</v>
+      </c>
+      <c r="C39" s="8">
+        <v>65</v>
+      </c>
+      <c r="D39" s="8">
+        <v>82.5</v>
+      </c>
+      <c r="E39" s="8">
+        <v>90</v>
+      </c>
+      <c r="F39" s="8">
+        <v>54</v>
+      </c>
+      <c r="G39" s="8">
+        <v>43</v>
+      </c>
+      <c r="H39" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="I39" s="8">
+        <v>47</v>
+      </c>
+      <c r="J39" s="8">
+        <v>65</v>
+      </c>
+      <c r="K39" s="8">
+        <v>76</v>
+      </c>
+      <c r="L39" s="8">
+        <v>120</v>
+      </c>
+      <c r="M39" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="N39" s="8">
+        <v>95</v>
+      </c>
+      <c r="O39" s="8">
+        <v>116</v>
+      </c>
+      <c r="P39" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>15</v>
+      </c>
+      <c r="R39" s="8">
+        <v>63</v>
+      </c>
+      <c r="S39" s="8">
+        <v>71</v>
+      </c>
+      <c r="T39" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>150</v>
+      </c>
+      <c r="B40" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="C40" s="8">
+        <v>70</v>
+      </c>
+      <c r="D40" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="E40" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="F40" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="G40" s="8">
+        <v>75</v>
+      </c>
+      <c r="H40" s="8">
+        <v>26</v>
+      </c>
+      <c r="I40" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="J40" s="8">
+        <v>72</v>
+      </c>
+      <c r="K40" s="8">
+        <v>100</v>
+      </c>
+      <c r="L40" s="8">
+        <v>110.5</v>
+      </c>
+      <c r="M40" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="N40" s="8">
+        <v>91</v>
+      </c>
+      <c r="O40" s="8">
+        <v>65</v>
+      </c>
+      <c r="P40" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>36</v>
+      </c>
+      <c r="R40" s="8">
+        <v>80</v>
+      </c>
+      <c r="S40" s="8">
+        <v>79</v>
+      </c>
+      <c r="T40" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="B41" s="8">
+        <v>125</v>
+      </c>
+      <c r="C41" s="8">
+        <v>82</v>
+      </c>
+      <c r="D41" s="8">
+        <v>101</v>
+      </c>
+      <c r="E41" s="8">
+        <v>80</v>
+      </c>
+      <c r="F41" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="G41" s="8">
+        <v>41</v>
+      </c>
+      <c r="H41" s="8">
+        <v>45</v>
+      </c>
+      <c r="I41" s="8">
+        <v>6</v>
+      </c>
+      <c r="J41" s="8">
+        <v>4</v>
+      </c>
+      <c r="K41" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="L41" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="M41" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="N41" s="8">
+        <v>70</v>
+      </c>
+      <c r="O41" s="8">
+        <v>20</v>
+      </c>
+      <c r="P41" s="8">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>35</v>
+      </c>
+      <c r="R41" s="8">
+        <v>71</v>
+      </c>
+      <c r="S41" s="8">
+        <v>59</v>
+      </c>
+      <c r="T41" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>39.5</v>
+      </c>
+      <c r="B42" s="8">
+        <v>58</v>
+      </c>
+      <c r="C42" s="8">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8">
+        <v>53</v>
+      </c>
+      <c r="E42" s="8">
+        <v>54</v>
+      </c>
+      <c r="F42" s="8">
+        <v>48</v>
+      </c>
+      <c r="G42" s="8">
+        <v>45</v>
+      </c>
+      <c r="H42" s="8">
+        <v>39</v>
+      </c>
+      <c r="I42" s="8">
+        <v>28</v>
+      </c>
+      <c r="J42" s="8">
+        <v>26</v>
+      </c>
+      <c r="K42" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="L42" s="8">
+        <v>111.5</v>
+      </c>
+      <c r="M42" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="N42" s="8">
+        <v>86</v>
+      </c>
+      <c r="O42" s="8">
+        <v>53</v>
+      </c>
+      <c r="P42" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="R42" s="8">
+        <v>29</v>
+      </c>
+      <c r="S42" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="T42" s="8">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>70</v>
+      </c>
+      <c r="B43" s="8">
+        <v>72</v>
+      </c>
+      <c r="C43" s="8">
+        <v>54.5</v>
+      </c>
+      <c r="E43" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="G43" s="8">
+        <v>31.5</v>
+      </c>
+      <c r="H43" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="I43" s="8">
+        <v>16</v>
+      </c>
+      <c r="J43" s="8">
+        <v>6</v>
+      </c>
+      <c r="K43" s="8">
+        <v>63</v>
+      </c>
+      <c r="L43" s="8">
+        <v>76</v>
+      </c>
+      <c r="M43" s="8">
+        <v>37</v>
+      </c>
+      <c r="N43" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="O43" s="8">
+        <v>40</v>
+      </c>
+      <c r="P43" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>31</v>
+      </c>
+      <c r="R43" s="8">
+        <v>114</v>
+      </c>
+      <c r="S43" s="8">
+        <v>130</v>
+      </c>
+      <c r="T43" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>96</v>
+      </c>
+      <c r="B44" s="8">
+        <v>83</v>
+      </c>
+      <c r="C44" s="8">
+        <v>47</v>
+      </c>
+      <c r="D44" s="8">
+        <v>10</v>
+      </c>
+      <c r="E44" s="8">
+        <v>29</v>
+      </c>
+      <c r="F44" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="H44" s="8">
+        <v>6</v>
+      </c>
+      <c r="I44" s="8">
+        <v>5</v>
+      </c>
+      <c r="J44" s="8">
+        <v>16</v>
+      </c>
+      <c r="K44" s="8">
+        <v>29</v>
+      </c>
+      <c r="L44" s="8">
+        <v>21</v>
+      </c>
+      <c r="M44" s="8">
+        <v>30</v>
+      </c>
+      <c r="N44" s="8">
+        <v>74</v>
+      </c>
+      <c r="O44" s="8">
+        <v>50</v>
+      </c>
+      <c r="P44" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>4</v>
+      </c>
+      <c r="T44" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>61</v>
+      </c>
+      <c r="B45" s="8">
+        <v>60</v>
+      </c>
+      <c r="D45" s="8">
+        <v>6</v>
+      </c>
+      <c r="E45" s="8">
+        <v>54</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K45" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="L45" s="8">
+        <v>5</v>
+      </c>
+      <c r="O45" s="8">
+        <v>38</v>
+      </c>
+      <c r="P45" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>30</v>
+      </c>
+      <c r="R45" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="S45" s="8">
+        <v>37</v>
+      </c>
+      <c r="T45" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
+        <v>41</v>
+      </c>
+      <c r="B46" s="8">
+        <v>116</v>
+      </c>
+      <c r="C46" s="8">
+        <v>53</v>
+      </c>
+      <c r="D46" s="8">
+        <v>51</v>
+      </c>
+      <c r="E46" s="8">
+        <v>86</v>
+      </c>
+      <c r="F46" s="8">
+        <v>23</v>
+      </c>
+      <c r="G46" s="8">
+        <v>35</v>
+      </c>
+      <c r="H46" s="8">
+        <v>28</v>
+      </c>
+      <c r="I46" s="8">
+        <v>25</v>
+      </c>
+      <c r="J46" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="K46" s="8">
+        <v>50</v>
+      </c>
+      <c r="L46" s="8">
+        <v>41</v>
+      </c>
+      <c r="M46" s="8">
+        <v>71.5</v>
+      </c>
+      <c r="N46" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="O46" s="8">
+        <v>27</v>
+      </c>
+      <c r="P46" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="R46" s="8">
+        <v>23</v>
+      </c>
+      <c r="S46" s="8">
+        <v>30</v>
+      </c>
+      <c r="T46" s="8">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>120</v>
+      </c>
+      <c r="B47" s="8">
+        <v>126</v>
+      </c>
+      <c r="C47" s="8">
+        <v>78</v>
+      </c>
+      <c r="D47" s="8">
+        <v>80.5</v>
+      </c>
+      <c r="E47" s="8">
+        <v>73</v>
+      </c>
+      <c r="F47" s="8">
+        <v>42</v>
+      </c>
+      <c r="G47" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="H47" s="8">
+        <v>32</v>
+      </c>
+      <c r="I47" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="J47" s="8">
+        <v>20</v>
+      </c>
+      <c r="K47" s="8">
+        <v>145</v>
+      </c>
+      <c r="L47" s="8">
+        <v>80</v>
+      </c>
+      <c r="M47" s="8">
+        <v>110</v>
+      </c>
+      <c r="N47" s="8">
+        <v>148</v>
+      </c>
+      <c r="O47" s="8">
+        <v>121</v>
+      </c>
+      <c r="P47" s="8">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>88</v>
+      </c>
+      <c r="R47" s="8">
+        <v>85.5</v>
+      </c>
+      <c r="S47" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="T47" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>111</v>
+      </c>
+      <c r="B48" s="8">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8">
+        <v>43</v>
+      </c>
+      <c r="D48" s="8">
+        <v>51</v>
+      </c>
+      <c r="E48" s="8">
+        <v>75</v>
+      </c>
+      <c r="F48" s="8">
+        <v>33</v>
+      </c>
+      <c r="G48" s="8">
+        <v>3</v>
+      </c>
+      <c r="H48" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="J48" s="8">
+        <v>47</v>
+      </c>
+      <c r="K48" s="8">
+        <v>94</v>
+      </c>
+      <c r="L48" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="M48" s="8">
+        <v>44</v>
+      </c>
+      <c r="N48" s="8">
+        <v>50</v>
+      </c>
+      <c r="O48" s="8">
+        <v>125</v>
+      </c>
+      <c r="P48" s="8">
+        <v>31</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>48</v>
+      </c>
+      <c r="R48" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="S48" s="8">
+        <v>60</v>
+      </c>
+      <c r="T48" s="8">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView topLeftCell="A125" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>389</v>
       </c>
@@ -442,7 +3427,7 @@
         <v>360.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>302</v>
       </c>
@@ -468,7 +3453,7 @@
         <v>376.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>261</v>
       </c>
@@ -494,7 +3479,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>337</v>
       </c>
@@ -520,7 +3505,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>314.5</v>
       </c>
@@ -546,7 +3531,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>356</v>
       </c>
@@ -572,7 +3557,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>384</v>
       </c>
@@ -598,7 +3583,7 @@
         <v>363.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>330</v>
       </c>
@@ -624,7 +3609,7 @@
         <v>334.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>338</v>
       </c>
@@ -650,7 +3635,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>311.5</v>
       </c>
@@ -676,7 +3661,7 @@
         <v>396.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>346.5</v>
       </c>
@@ -702,7 +3687,7 @@
         <v>315.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>323</v>
       </c>
@@ -728,7 +3713,7 @@
         <v>305.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>351.5</v>
       </c>
@@ -754,7 +3739,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>402.5</v>
       </c>
@@ -780,7 +3765,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>346</v>
       </c>
@@ -806,7 +3791,7 @@
         <v>339.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>393.5</v>
       </c>
@@ -832,7 +3817,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>320</v>
       </c>
@@ -858,7 +3843,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>328</v>
       </c>
@@ -884,7 +3869,7 @@
         <v>359.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>336</v>
       </c>
@@ -910,7 +3895,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>327</v>
       </c>
@@ -936,7 +3921,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>352.5</v>
       </c>
@@ -962,7 +3947,7 @@
         <v>355.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>358</v>
       </c>
@@ -988,7 +3973,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>357</v>
       </c>
@@ -1014,7 +3999,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>337.5</v>
       </c>
@@ -1040,7 +4025,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>312.5</v>
       </c>
@@ -1066,7 +4051,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>362</v>
       </c>
@@ -1092,7 +4077,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>290</v>
       </c>
@@ -1118,7 +4103,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>318</v>
       </c>
@@ -1144,7 +4129,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>315.5</v>
       </c>
@@ -1170,7 +4155,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>325</v>
       </c>
@@ -1196,7 +4181,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>354</v>
       </c>
@@ -1222,7 +4207,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>340</v>
       </c>
@@ -1248,7 +4233,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>355</v>
       </c>
@@ -1274,7 +4259,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>373</v>
       </c>
@@ -1300,7 +4285,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>314</v>
       </c>
@@ -1326,7 +4311,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>341</v>
       </c>
@@ -1352,7 +4337,7 @@
         <v>341.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>295</v>
       </c>
@@ -1378,7 +4363,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>328</v>
       </c>
@@ -1404,7 +4389,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>295</v>
       </c>
@@ -1430,7 +4415,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>307</v>
       </c>
@@ -1456,7 +4441,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>339</v>
       </c>
@@ -1482,7 +4467,7 @@
         <v>369.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>365</v>
       </c>
@@ -1508,7 +4493,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>360</v>
       </c>
@@ -1534,7 +4519,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>372</v>
       </c>
@@ -1560,7 +4545,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>304</v>
       </c>
@@ -1586,7 +4571,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>332</v>
       </c>
@@ -1612,7 +4597,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>317</v>
       </c>
@@ -1638,7 +4623,7 @@
         <v>347.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>380</v>
       </c>
@@ -1664,7 +4649,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>366.5</v>
       </c>
@@ -1690,7 +4675,7 @@
         <v>347.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>357.5</v>
       </c>
@@ -1716,7 +4701,7 @@
         <v>330.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>325</v>
       </c>
@@ -1742,7 +4727,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>391</v>
       </c>
@@ -1768,7 +4753,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>313.5</v>
       </c>
@@ -1794,7 +4779,7 @@
         <v>333.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>337</v>
       </c>
@@ -1820,7 +4805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>326</v>
       </c>
@@ -1846,7 +4831,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>393</v>
       </c>
@@ -1872,7 +4857,7 @@
         <v>365.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>395</v>
       </c>
@@ -1898,7 +4883,7 @@
         <v>378.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>230</v>
       </c>
@@ -1924,7 +4909,7 @@
         <v>333.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>363</v>
       </c>
@@ -1950,7 +4935,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>375</v>
       </c>
@@ -1976,7 +4961,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>347.5</v>
       </c>
@@ -2002,7 +4987,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>312</v>
       </c>
@@ -2028,7 +5013,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>277</v>
       </c>
@@ -2054,7 +5039,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>275.5</v>
       </c>
@@ -2080,7 +5065,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>378</v>
       </c>
@@ -2106,7 +5091,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>315</v>
       </c>
@@ -2132,7 +5117,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>329</v>
       </c>
@@ -2158,7 +5143,7 @@
         <v>350.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>333</v>
       </c>
@@ -2184,7 +5169,7 @@
         <v>338.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>356</v>
       </c>
@@ -2210,7 +5195,7 @@
         <v>314.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>333</v>
       </c>
@@ -2236,7 +5221,7 @@
         <v>384.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>321.5</v>
       </c>
@@ -2262,7 +5247,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>291.5</v>
       </c>
@@ -2288,7 +5273,7 @@
         <v>311.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>315.5</v>
       </c>
@@ -2314,7 +5299,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>348.5</v>
       </c>
@@ -2340,7 +5325,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>318</v>
       </c>
@@ -2366,7 +5351,7 @@
         <v>318.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>269.5</v>
       </c>
@@ -2392,7 +5377,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>276</v>
       </c>
@@ -2418,7 +5403,7 @@
         <v>356.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>316.5</v>
       </c>
@@ -2444,7 +5429,7 @@
         <v>333.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>337.5</v>
       </c>
@@ -2470,7 +5455,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>266.5</v>
       </c>
@@ -2496,7 +5481,7 @@
         <v>309.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>312</v>
       </c>
@@ -2522,7 +5507,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>319</v>
       </c>
@@ -2548,7 +5533,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>400</v>
       </c>
@@ -2574,7 +5559,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>328.5</v>
       </c>
@@ -2600,7 +5585,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>325</v>
       </c>
@@ -2626,7 +5611,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>321</v>
       </c>
@@ -2652,7 +5637,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>315</v>
       </c>
@@ -2678,7 +5663,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>278</v>
       </c>
@@ -2704,7 +5689,7 @@
         <v>317.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>309</v>
       </c>
@@ -2730,7 +5715,7 @@
         <v>313.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>326</v>
       </c>
@@ -2756,7 +5741,7 @@
         <v>316.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>314.5</v>
       </c>
@@ -2782,7 +5767,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>320</v>
       </c>
@@ -2808,7 +5793,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>336</v>
       </c>
@@ -2834,7 +5819,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>333</v>
       </c>
@@ -2860,7 +5845,7 @@
         <v>327.5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>345</v>
       </c>
@@ -2886,7 +5871,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>354</v>
       </c>
@@ -2912,7 +5897,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>345</v>
       </c>
@@ -2938,7 +5923,7 @@
         <v>356.5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>322.5</v>
       </c>
@@ -2964,7 +5949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>293</v>
       </c>
@@ -2990,7 +5975,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>313.5</v>
       </c>
@@ -3016,7 +6001,7 @@
         <v>294.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>291.5</v>
       </c>
@@ -3042,7 +6027,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>331</v>
       </c>
@@ -3068,7 +6053,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>351.5</v>
       </c>
@@ -3094,7 +6079,7 @@
         <v>329.5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>315</v>
       </c>
@@ -3120,7 +6105,7 @@
         <v>324.5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>276.5</v>
       </c>
@@ -3146,7 +6131,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>276</v>
       </c>
@@ -3172,7 +6157,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>280</v>
       </c>
@@ -3198,7 +6183,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>297.5</v>
       </c>
@@ -3224,7 +6209,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>279.5</v>
       </c>
@@ -3250,7 +6235,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>332.5</v>
       </c>
@@ -3276,7 +6261,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>212.5</v>
       </c>
@@ -3302,7 +6287,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>356</v>
       </c>
@@ -3328,7 +6313,7 @@
         <v>306.5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>330</v>
       </c>
@@ -3354,7 +6339,7 @@
         <v>335.5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>315</v>
       </c>
@@ -3380,7 +6365,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>300</v>
       </c>
@@ -3406,7 +6391,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>263</v>
       </c>
@@ -3432,7 +6417,7 @@
         <v>392.5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>310.5</v>
       </c>
@@ -3458,7 +6443,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>343.5</v>
       </c>
@@ -3484,7 +6469,7 @@
         <v>345.5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>256</v>
       </c>
@@ -3510,7 +6495,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>328</v>
       </c>
@@ -3536,7 +6521,7 @@
         <v>343.5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>270</v>
       </c>
@@ -3562,7 +6547,7 @@
         <v>306.5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>266.5</v>
       </c>
@@ -3588,7 +6573,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>231</v>
       </c>
@@ -3614,7 +6599,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>287.5</v>
       </c>
@@ -3640,7 +6625,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>294</v>
       </c>
@@ -3666,7 +6651,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>262.5</v>
       </c>
@@ -3692,7 +6677,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>307</v>
       </c>
@@ -3718,7 +6703,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>264.5</v>
       </c>
@@ -3744,7 +6729,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>319.5</v>
       </c>
@@ -3770,7 +6755,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>315</v>
       </c>
@@ -3796,7 +6781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>280</v>
       </c>
@@ -3822,7 +6807,7 @@
         <v>295.5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>313.5</v>
       </c>
@@ -3848,7 +6833,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>291.5</v>
       </c>
@@ -3874,7 +6859,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>293.5</v>
       </c>
@@ -3900,7 +6885,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>339.5</v>
       </c>
@@ -3926,7 +6911,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>248.5</v>
       </c>
@@ -3954,20 +6939,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="5">
         <v>280.5</v>
       </c>
@@ -3993,7 +6982,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>282</v>
       </c>
@@ -4019,7 +7008,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>251</v>
       </c>
@@ -4045,7 +7034,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>301</v>
       </c>
@@ -4071,7 +7060,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>288</v>
       </c>
@@ -4097,7 +7086,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>310</v>
       </c>
@@ -4123,7 +7112,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>263.5</v>
       </c>
@@ -4149,7 +7138,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>272.5</v>
       </c>
@@ -4175,7 +7164,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>296</v>
       </c>
@@ -4201,7 +7190,7 @@
         <v>243.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>264.5</v>
       </c>
@@ -4227,7 +7216,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>281</v>
       </c>
@@ -4253,7 +7242,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>320</v>
       </c>
@@ -4279,7 +7268,7 @@
         <v>222.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>271</v>
       </c>
@@ -4305,7 +7294,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>281</v>
       </c>
@@ -4331,7 +7320,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>284</v>
       </c>
@@ -4357,7 +7346,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>301</v>
       </c>
@@ -4383,7 +7372,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>294.5</v>
       </c>
@@ -4409,7 +7398,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>311.5</v>
       </c>
@@ -4435,7 +7424,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>325</v>
       </c>
@@ -4461,7 +7450,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>310</v>
       </c>
@@ -4487,7 +7476,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>297</v>
       </c>
@@ -4513,7 +7502,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>301</v>
       </c>
@@ -4539,7 +7528,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>335</v>
       </c>
@@ -4565,7 +7554,7 @@
         <v>200.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>314.5</v>
       </c>
@@ -4591,7 +7580,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>341.5</v>
       </c>
@@ -4617,7 +7606,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>305</v>
       </c>
@@ -4643,7 +7632,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>337</v>
       </c>
@@ -4669,7 +7658,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>338</v>
       </c>
@@ -4695,7 +7684,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>311</v>
       </c>
@@ -4721,7 +7710,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>270</v>
       </c>
@@ -4747,7 +7736,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>280</v>
       </c>
@@ -4773,7 +7762,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>308</v>
       </c>
@@ -4799,7 +7788,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>304</v>
       </c>
@@ -4825,7 +7814,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>315</v>
       </c>
@@ -4851,7 +7840,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>315.5</v>
       </c>
@@ -4877,7 +7866,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>342.5</v>
       </c>
@@ -4903,7 +7892,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>293</v>
       </c>
@@ -4929,7 +7918,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>303</v>
       </c>
@@ -4955,7 +7944,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>307</v>
       </c>
@@ -4981,7 +7970,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>342</v>
       </c>
@@ -5007,7 +7996,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>320</v>
       </c>
@@ -5033,7 +8022,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>282</v>
       </c>
@@ -5059,7 +8048,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>304</v>
       </c>
@@ -5085,7 +8074,7 @@
         <v>286.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>326</v>
       </c>
@@ -5111,7 +8100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>269</v>
       </c>
@@ -5137,7 +8126,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>255</v>
       </c>
@@ -5163,7 +8152,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>288</v>
       </c>
@@ -5189,7 +8178,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>284.5</v>
       </c>
@@ -5215,7 +8204,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>304.5</v>
       </c>
@@ -5241,7 +8230,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>295.5</v>
       </c>
@@ -5267,7 +8256,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>303</v>
       </c>
@@ -5293,7 +8282,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>304</v>
       </c>
@@ -5319,7 +8308,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>264</v>
       </c>
@@ -5345,7 +8334,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>309</v>
       </c>
@@ -5371,7 +8360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>297</v>
       </c>
@@ -5397,7 +8386,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>296</v>
       </c>
@@ -5423,7 +8412,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>319</v>
       </c>
@@ -5449,7 +8438,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>310</v>
       </c>
@@ -5475,7 +8464,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>294</v>
       </c>
@@ -5501,7 +8490,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>295</v>
       </c>
@@ -5527,7 +8516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>296</v>
       </c>
@@ -5553,7 +8542,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>293</v>
       </c>
@@ -5579,7 +8568,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>292</v>
       </c>
@@ -5605,7 +8594,7 @@
         <v>300.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>347</v>
       </c>
@@ -5631,7 +8620,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>262</v>
       </c>
@@ -5657,7 +8646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>323.5</v>
       </c>
@@ -5683,7 +8672,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>291</v>
       </c>
@@ -5709,7 +8698,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>306.5</v>
       </c>
@@ -5735,7 +8724,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>353</v>
       </c>
@@ -5761,7 +8750,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>280</v>
       </c>
@@ -5787,7 +8776,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>296</v>
       </c>
@@ -5813,7 +8802,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>302</v>
       </c>
@@ -5839,7 +8828,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>314</v>
       </c>
@@ -5865,7 +8854,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>336</v>
       </c>
@@ -5891,7 +8880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>320</v>
       </c>
@@ -5917,7 +8906,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>296</v>
       </c>
@@ -5943,7 +8932,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>324.5</v>
       </c>
@@ -5969,7 +8958,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>302.5</v>
       </c>
@@ -5995,7 +8984,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>314.5</v>
       </c>
@@ -6021,7 +9010,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>290</v>
       </c>
@@ -6047,7 +9036,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>360</v>
       </c>
@@ -6073,7 +9062,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>352</v>
       </c>
@@ -6099,7 +9088,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>345</v>
       </c>
@@ -6125,7 +9114,7 @@
         <v>260.5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>347</v>
       </c>
@@ -6151,7 +9140,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>327</v>
       </c>
@@ -6177,7 +9166,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>286.5</v>
       </c>
@@ -6203,7 +9192,7 @@
         <v>317.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>293</v>
       </c>
@@ -6229,7 +9218,7 @@
         <v>274.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>250</v>
       </c>
@@ -6255,7 +9244,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>221</v>
       </c>
@@ -6281,7 +9270,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>185</v>
       </c>
@@ -6307,7 +9296,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>155.5</v>
       </c>
@@ -6333,7 +9322,7 @@
         <v>274.5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>250.5</v>
       </c>
@@ -6359,7 +9348,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>205</v>
       </c>
@@ -6385,7 +9374,7 @@
         <v>261.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>257</v>
       </c>
@@ -6411,7 +9400,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>211</v>
       </c>
@@ -6437,7 +9426,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>176</v>
       </c>
@@ -6463,7 +9452,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>175.5</v>
       </c>
@@ -6489,7 +9478,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>214.5</v>
       </c>
@@ -6515,7 +9504,7 @@
         <v>248.5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>186</v>
       </c>
@@ -6541,7 +9530,7 @@
         <v>268.5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>188.5</v>
       </c>
@@ -6567,7 +9556,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>181.5</v>
       </c>
@@ -6593,7 +9582,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>191</v>
       </c>
@@ -6619,7 +9608,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>191.5</v>
       </c>
@@ -6645,7 +9634,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>188.5</v>
       </c>
@@ -6671,7 +9660,7 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>194.5</v>
       </c>
@@ -6697,7 +9686,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>233.5</v>
       </c>
@@ -6723,7 +9712,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>203.5</v>
       </c>
@@ -6749,7 +9738,7 @@
         <v>298.5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>232.5</v>
       </c>
@@ -6775,7 +9764,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>203.5</v>
       </c>
@@ -6801,7 +9790,7 @@
         <v>322.5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>202</v>
       </c>
@@ -6827,7 +9816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>206</v>
       </c>
@@ -6853,7 +9842,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>192.5</v>
       </c>
@@ -6879,7 +9868,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>226.5</v>
       </c>
@@ -6905,7 +9894,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>174.5</v>
       </c>
@@ -6931,7 +9920,7 @@
         <v>270.5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>201.5</v>
       </c>
@@ -6957,7 +9946,7 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>216</v>
       </c>
@@ -6983,7 +9972,7 @@
         <v>234.5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>182.5</v>
       </c>
@@ -7009,7 +9998,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>212.5</v>
       </c>
@@ -7035,7 +10024,7 @@
         <v>265.5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>204</v>
       </c>
@@ -7061,7 +10050,7 @@
         <v>271.5</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>244</v>
       </c>
@@ -7087,7 +10076,7 @@
         <v>255.5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>222</v>
       </c>
@@ -7115,5 +10104,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>